--- a/src/main/resources/hr/payrollSample.xlsx
+++ b/src/main/resources/hr/payrollSample.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\reportSample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C842727-BA68-41EF-B190-8CA382A657D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDA057F-2A9B-484B-A21C-33D2CF47D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFFB250E-FF40-41FB-A43C-D49AA2540677}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DFFB250E-FF40-41FB-A43C-D49AA2540677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>2023년  8월분  급여대장</t>
   </si>
@@ -36,15 +39,6 @@
     <t>정렬 :부서&gt;직급순</t>
   </si>
   <si>
-    <t>[귀속:2023년 8월] [지급:2023년 9월 1일]</t>
-  </si>
-  <si>
-    <t>page :</t>
-  </si>
-  <si>
-    <t>1 / 1</t>
-  </si>
-  <si>
     <t>인 적 사 항</t>
   </si>
   <si>
@@ -160,6 +154,10 @@
   </si>
   <si>
     <t>차인지급액</t>
+  </si>
+  <si>
+    <t>[귀속:2023년 8월] [지급:2023년 0월 0일]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -374,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,43 +386,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,23 +443,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>245745</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>55483</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18102093-4F4F-4FD4-AC5E-15D40F03C9C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38579FB0-FED9-FCB8-A6DD-2A60B426DBF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -472,7 +467,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -480,15 +475,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect r="972"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6400800" y="45720"/>
-          <a:ext cx="3741420" cy="636508"/>
+          <a:off x="6991350" y="100013"/>
+          <a:ext cx="3748088" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,15 +800,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB364C0-EABB-4231-AF9B-9DC25DFC2D22}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="22.2" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -835,7 +831,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -853,7 +849,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -866,7 +862,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -874,14 +870,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -899,169 +890,169 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="8"/>
+      <c r="P8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1071,7 +1062,8 @@
     <mergeCell ref="P5:P8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/hr/payrollSample.xlsx
+++ b/src/main/resources/hr/payrollSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDA057F-2A9B-484B-A21C-33D2CF47D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB233368-3EB5-4AB5-A6F8-CE419E24A850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DFFB250E-FF40-41FB-A43C-D49AA2540677}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFFB250E-FF40-41FB-A43C-D49AA2540677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,15 +444,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:rowOff>20003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>659130</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>8515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -480,8 +480,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6991350" y="100013"/>
-          <a:ext cx="3748088" cy="762000"/>
+          <a:off x="7216140" y="20003"/>
+          <a:ext cx="3444240" cy="702887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -806,12 +806,12 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -831,7 +831,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -849,7 +849,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -890,7 +890,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -916,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>37</v>
       </c>

--- a/src/main/resources/hr/payrollSample.xlsx
+++ b/src/main/resources/hr/payrollSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB233368-3EB5-4AB5-A6F8-CE419E24A850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73BB759-2CB3-4C64-8563-D826287B9B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFFB250E-FF40-41FB-A43C-D49AA2540677}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +217,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -372,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +429,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -806,7 +814,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -853,7 +861,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
